--- a/benchmark.xlsx
+++ b/benchmark.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Google Drive\Università\__Tesi\Progetto\nft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Google Drive\Università\__Tesi\Progetto\nft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FF0099-A489-44F9-86CB-F3521E5B978C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7944EF-FE23-4FAD-8B19-2F1C2BEFA3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{974F0CEC-CCF7-43EF-B0E3-7D8AA16FF792}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
   <si>
     <t>Gas Used</t>
   </si>
@@ -160,19 +160,34 @@
     <t>Mentre il parametro "Gas Used" non dipende dal tipo di network utilizzato, le fee invece possono variare: questo significa che le misurazioni in termini di costi effettivi stimate sopra (EUR) non sono assimililabili alla Mainnet.</t>
   </si>
   <si>
-    <t>I tempi relativi alla blockchain Ethereum ("Safe Mint" e "Verify") possono essere dall'endpoint fornito da una terza parte, Infura. Per risolvere questo problema occorrerebbe implementare un nodo Ethereum in locale.</t>
-  </si>
-  <si>
-    <t>I tempi IPFS possono essere abbattuti implementando un nodo IPFS in locale</t>
-  </si>
-  <si>
-    <t>Sarebbe interessante effettuare delle misurazioni su IPFS a distanza di giorni/settimane in modo verificare l'impatto che la cache ha su questo protocollo</t>
-  </si>
-  <si>
     <t>1 GWEI = 10^9 WEI</t>
   </si>
   <si>
     <t>1 ETH = 10^9 GWEI</t>
+  </si>
+  <si>
+    <t>L'esperimento 1 di Görli ha "Gas Used" maggiore probabilmente perché il contratto era nuovo e l'operazione "Safe Mint" non era mai stata chiamata.</t>
+  </si>
+  <si>
+    <t>IPFS Storage Time Average</t>
+  </si>
+  <si>
+    <t>I tempi IPFS possono essere abbattuti implementando un nodo IPFS in locale.</t>
+  </si>
+  <si>
+    <t>Sarebbe interessante effettuare delle misurazioni su IPFS a distanza di giorni/settimane in modo verificare l'impatto che la cache ha su questo protocollo.</t>
+  </si>
+  <si>
+    <t>I tempi dell'operazione "Safe Mint", essendo misurati su una Testnet e non sulla Mainnet, potrebbero variare significativamente.</t>
+  </si>
+  <si>
+    <t>I tempi relativi alla blockchain Ethereum ("Safe Mint" e "Verify") dipendono dall'endpoint fornito da una terza parte, Infura. Per risolvere questo problema occorrerebbe implementare un nodo Ethereum in locale.</t>
+  </si>
+  <si>
+    <t>VERIFY</t>
+  </si>
+  <si>
+    <t>SAFE MINT</t>
   </si>
 </sst>
 </file>
@@ -208,7 +223,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,6 +251,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,7 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -283,25 +322,35 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="22" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="22" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -320,6 +369,1188 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>IPFS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Storage per dimensione (byte)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>78.710</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="11"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>Media</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio1!$C$10:$C$14,Foglio1!$C$24:$C$28,Foglio1!$M$37)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4325.8426000028803</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4113.7525000125097</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3471.7394000142799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4378.2012999951803</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3537.3904000073599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5521.6511000096798</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4397.0007999986401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4269.6210000067904</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3750.9995999932198</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26139.453100010702</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>6390.5651800051246</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AFCF-4007-9424-1FE05B422A6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>104.857.600</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="11"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>Media</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Foglio1!$C$15:$C$19,Foglio1!$C$29:$C$33,Foglio1!$M$38)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>36094.410499989899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34975.953099995801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33521.328600004301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29511.252000003999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27217.455600008299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36074.654799997799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34782.579300001198</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33957.320899993101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31862.307400002999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32807.0062000006</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>33080.426839999796</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AFCF-4007-9424-1FE05B422A6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="660646512"/>
+        <c:axId val="572474032"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="660646512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Esperimenti</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="572474032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="572474032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Tempo (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="660646512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06951FF6-9807-31FC-F228-477084CD4D92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -619,10 +1850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DDE52C-A3B6-4AE4-B515-FC5446308817}">
-  <dimension ref="A1:V52"/>
+  <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,24 +1878,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="18">
+      <c r="B1" s="13">
         <v>44697.418055555558</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="17">
         <v>1933.31</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="17"/>
       <c r="E2">
         <v>100000000</v>
       </c>
@@ -684,11 +1915,11 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D3" s="2"/>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -704,94 +1935,74 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J9" s="8" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2">
-        <v>9456.81005859375</v>
-      </c>
-      <c r="C9" s="2">
-        <v>4325.8426000028803</v>
-      </c>
-      <c r="D9" s="1">
-        <v>78710</v>
-      </c>
-      <c r="E9" s="1">
-        <v>78710</v>
-      </c>
-      <c r="F9">
-        <v>151777</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1.3232927130000001</v>
-      </c>
-      <c r="H9" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="I9">
-        <f>(G9+H9)*F9</f>
-        <v>580287.89810100093</v>
-      </c>
-      <c r="J9" s="3">
-        <f>(I9*$E$4*$A$2)</f>
-        <v>1.1218763962776461</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="2">
-        <v>13012.0380859375</v>
+        <v>9456.81005859375</v>
       </c>
       <c r="C10" s="2">
-        <v>4113.7525000125097</v>
+        <v>4325.8426000028803</v>
       </c>
       <c r="D10" s="1">
         <v>78710</v>
@@ -803,29 +2014,29 @@
         <v>151777</v>
       </c>
       <c r="G10" s="2">
-        <v>1.3527236380000001</v>
+        <v>1.3232927130000001</v>
       </c>
       <c r="H10" s="2">
         <v>2.5</v>
       </c>
       <c r="I10">
         <f>(G10+H10)*F10</f>
-        <v>584754.83560472599</v>
+        <v>580287.89810100093</v>
       </c>
       <c r="J10" s="3">
         <f>(I10*$E$4*$A$2)</f>
-        <v>1.1305123712229728</v>
+        <v>1.1218763962776461</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="2">
-        <v>16485.311035156199</v>
+        <v>13012.0380859375</v>
       </c>
       <c r="C11" s="2">
-        <v>3471.7394000142799</v>
+        <v>4113.7525000125097</v>
       </c>
       <c r="D11" s="1">
         <v>78710</v>
@@ -837,29 +2048,29 @@
         <v>151777</v>
       </c>
       <c r="G11" s="2">
-        <v>1.2909849849999999</v>
+        <v>1.3527236380000001</v>
       </c>
       <c r="H11" s="2">
         <v>2.5</v>
       </c>
       <c r="I11">
         <f>(G11+H11)*F11</f>
-        <v>575384.32806834497</v>
+        <v>584754.83560472599</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" ref="J11:J18" si="0">(I11*$E$4*$A$2)</f>
-        <v>1.112396275297812</v>
+        <f>(I11*$E$4*$A$2)</f>
+        <v>1.1305123712229728</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="2">
-        <v>13034.816894531201</v>
+        <v>16485.311035156199</v>
       </c>
       <c r="C12" s="2">
-        <v>4378.2012999951803</v>
+        <v>3471.7394000142799</v>
       </c>
       <c r="D12" s="1">
         <v>78710</v>
@@ -871,446 +2082,387 @@
         <v>151777</v>
       </c>
       <c r="G12" s="2">
-        <v>1.269151567</v>
+        <v>1.2909849849999999</v>
       </c>
       <c r="H12" s="2">
         <v>2.5</v>
       </c>
       <c r="I12">
         <f>(G12+H12)*F12</f>
+        <v>575384.32806834497</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" ref="J12:J19" si="0">(I12*$E$4*$A$2)</f>
+        <v>1.112396275297812</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2">
+        <v>13034.816894531201</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4378.2012999951803</v>
+      </c>
+      <c r="D13" s="1">
+        <v>78710</v>
+      </c>
+      <c r="E13" s="1">
+        <v>78710</v>
+      </c>
+      <c r="F13">
+        <v>151777</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1.269151567</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="I13">
+        <f>(G13+H13)*F13</f>
         <v>572070.51738455892</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J13" s="3">
         <f t="shared" si="0"/>
         <v>1.1059896519647416</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>5</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="2">
         <v>12279.779785156201</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C14" s="2">
         <v>3537.3904000073599</v>
       </c>
-      <c r="D13" s="1">
-        <v>78710</v>
-      </c>
-      <c r="E13" s="1">
-        <v>78710</v>
-      </c>
-      <c r="F13">
+      <c r="D14" s="1">
+        <v>78710</v>
+      </c>
+      <c r="E14" s="1">
+        <v>78710</v>
+      </c>
+      <c r="F14">
         <v>151777</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G14" s="2">
         <v>1.18458741</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H14" s="2">
         <v>2.5</v>
       </c>
-      <c r="I13">
-        <f>(G13+H13)*F13</f>
+      <c r="I14">
+        <f>(G14+H14)*F14</f>
         <v>559235.62332756992</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J14" s="3">
         <f t="shared" si="0"/>
         <v>1.0811758229354242</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>6</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B15" s="2">
+        <v>9161.1689453125</v>
+      </c>
+      <c r="C15" s="2">
         <v>36094.410499989899</v>
       </c>
-      <c r="C14" s="2">
-        <v>9161.1689453125</v>
-      </c>
-      <c r="D14" s="1">
-        <v>78710</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D15" s="1">
+        <v>78710</v>
+      </c>
+      <c r="E15" s="1">
         <v>104857600</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>151777</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G15" s="2">
         <v>1.3086158510000001</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H15" s="2">
         <v>2.5</v>
       </c>
-      <c r="I14">
-        <f t="shared" ref="I14:I18" si="1">(G14+H14)*F14</f>
+      <c r="I15">
+        <f t="shared" ref="I15:I19" si="1">(G15+H15)*F15</f>
         <v>578060.28801722697</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J15" s="3">
         <f t="shared" si="0"/>
         <v>1.117569735426585</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>7</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B16" s="2">
+        <v>11965.62890625</v>
+      </c>
+      <c r="C16" s="2">
         <v>34975.953099995801</v>
       </c>
-      <c r="C15" s="2">
-        <v>11965.62890625</v>
-      </c>
-      <c r="D15" s="1">
-        <v>78710</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="D16" s="1">
+        <v>78710</v>
+      </c>
+      <c r="E16" s="1">
         <v>104857600</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>151777</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G16" s="2">
         <v>1.084588825</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H16" s="2">
         <v>2.5</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <f t="shared" si="1"/>
         <v>544058.13809202495</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J16" s="3">
         <f t="shared" si="0"/>
         <v>1.0518330389546928</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>8</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B17" s="2">
+        <v>20401.583740234299</v>
+      </c>
+      <c r="C17" s="2">
         <v>33521.328600004301</v>
       </c>
-      <c r="C16" s="2">
-        <v>20401.583740234299</v>
-      </c>
-      <c r="D16" s="1">
-        <v>78710</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="D17" s="1">
+        <v>78710</v>
+      </c>
+      <c r="E17" s="1">
         <v>104857600</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>151777</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G17" s="2">
         <v>1.1178003379999999</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H17" s="2">
         <v>2.5</v>
       </c>
-      <c r="I16">
+      <c r="I17">
         <f t="shared" si="1"/>
         <v>549098.881900626</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J17" s="3">
         <f t="shared" si="0"/>
         <v>1.0615783593672992</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>9</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B18" s="2">
+        <v>28535.0859375</v>
+      </c>
+      <c r="C18" s="2">
         <v>29511.252000003999</v>
       </c>
-      <c r="C17" s="2">
-        <v>28535.0859375</v>
-      </c>
-      <c r="D17" s="1">
-        <v>78710</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="D18" s="1">
+        <v>78710</v>
+      </c>
+      <c r="E18" s="1">
         <v>104857600</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>151777</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G18" s="2">
         <v>1.0448449989999999</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H18" s="2">
         <v>2.5</v>
       </c>
-      <c r="I17">
+      <c r="I18">
         <f t="shared" si="1"/>
         <v>538025.93941322295</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J18" s="3">
         <f t="shared" si="0"/>
         <v>1.0401709289269783</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>10</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B19" s="2">
+        <v>16551.981933593699</v>
+      </c>
+      <c r="C19" s="2">
         <v>27217.455600008299</v>
       </c>
-      <c r="C18" s="2">
-        <v>16551.981933593699</v>
-      </c>
-      <c r="D18" s="1">
-        <v>78710</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="D19" s="1">
+        <v>78710</v>
+      </c>
+      <c r="E19" s="1">
         <v>104857600</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>151777</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G19" s="2">
         <v>1.093432451</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H19" s="2">
         <v>2.5</v>
       </c>
-      <c r="I18">
+      <c r="I19">
         <f t="shared" si="1"/>
         <v>545400.39711542695</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J19" s="3">
         <f t="shared" si="0"/>
         <v>1.054428041747226</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B23" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D23" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E23" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F23" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G23" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H23" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I23" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="K23" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="L23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="M21" s="8" t="s">
+      <c r="M23" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N21" s="8" t="s">
+      <c r="N23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O21" s="8" t="s">
+      <c r="O23" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P21" s="8" t="s">
+      <c r="P23" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Q21" s="8" t="s">
+      <c r="Q23" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R21" s="8" t="s">
+      <c r="R23" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="24" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>1</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B24" s="2">
         <v>45868.4560546875</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C24" s="2">
         <v>5521.6511000096798</v>
       </c>
-      <c r="D22" s="1">
-        <v>78710</v>
-      </c>
-      <c r="E22" s="1">
-        <v>78710</v>
-      </c>
-      <c r="F22">
+      <c r="D24" s="1">
+        <v>78710</v>
+      </c>
+      <c r="E24" s="1">
+        <v>78710</v>
+      </c>
+      <c r="F24">
         <v>185977</v>
-      </c>
-      <c r="G22" s="4">
-        <v>6.9999999999999998E-9</v>
-      </c>
-      <c r="H22" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="I22">
-        <f>(G22+H22)*F22</f>
-        <v>464942.50130183902</v>
-      </c>
-      <c r="J22" s="7">
-        <f t="shared" ref="J22:J31" si="2">(I22*$E$4*$A$2)</f>
-        <v>0.89887798719185841</v>
-      </c>
-      <c r="K22" s="5">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>10</v>
-      </c>
-      <c r="M22" s="2">
-        <v>507.32950000464899</v>
-      </c>
-      <c r="N22" s="2">
-        <v>1074.0619140624999</v>
-      </c>
-      <c r="O22">
-        <v>32790</v>
-      </c>
-      <c r="P22" s="1">
-        <v>104857600</v>
-      </c>
-      <c r="S22" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23" s="2">
-        <v>20970.360839843699</v>
-      </c>
-      <c r="C23" s="2">
-        <v>4397.0007999986401</v>
-      </c>
-      <c r="D23" s="1">
-        <v>78710</v>
-      </c>
-      <c r="E23" s="1">
-        <v>78710</v>
-      </c>
-      <c r="F23">
-        <v>151777</v>
-      </c>
-      <c r="G23" s="4">
-        <v>6.9999999999999998E-9</v>
-      </c>
-      <c r="H23" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="I23">
-        <f t="shared" ref="I23:I31" si="3">(G23+H23)*F23</f>
-        <v>379442.501062439</v>
-      </c>
-      <c r="J23" s="7">
-        <f t="shared" si="2"/>
-        <v>0.73357998172902394</v>
-      </c>
-      <c r="K23" s="5">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>9</v>
-      </c>
-      <c r="M23" s="2">
-        <v>131.321199998259</v>
-      </c>
-      <c r="N23" s="2">
-        <v>5.1220703125</v>
-      </c>
-      <c r="O23">
-        <v>18260</v>
-      </c>
-      <c r="P23" s="1">
-        <v>104857600</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>18</v>
-      </c>
-      <c r="R23" t="s">
-        <v>18</v>
-      </c>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="B24" s="2">
-        <v>25416.9152832031</v>
-      </c>
-      <c r="C24" s="2">
-        <v>4269.6210000067904</v>
-      </c>
-      <c r="D24" s="1">
-        <v>78710</v>
-      </c>
-      <c r="E24" s="1">
-        <v>78710</v>
-      </c>
-      <c r="F24">
-        <v>151777</v>
       </c>
       <c r="G24" s="4">
         <v>6.9999999999999998E-9</v>
@@ -1319,51 +2471,47 @@
         <v>2.5</v>
       </c>
       <c r="I24">
-        <f t="shared" si="3"/>
-        <v>379442.501062439</v>
+        <f>(G24+H24)*F24</f>
+        <v>464942.50130183902</v>
       </c>
       <c r="J24" s="7">
-        <f t="shared" si="2"/>
-        <v>0.73357998172902394</v>
+        <f t="shared" ref="J24:J33" si="2">(I24*$E$4*$A$2)</f>
+        <v>0.89887798719185841</v>
       </c>
       <c r="K24" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M24" s="2">
-        <v>121.35949999093999</v>
+        <v>507.32950000464899</v>
       </c>
       <c r="N24" s="2">
-        <v>5.47607421875</v>
+        <v>1074.0619140624999</v>
       </c>
       <c r="O24">
-        <v>42</v>
+        <v>32790</v>
       </c>
       <c r="P24" s="1">
         <v>104857600</v>
       </c>
-      <c r="Q24" t="s">
-        <v>18</v>
-      </c>
-      <c r="R24" t="s">
-        <v>18</v>
-      </c>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
+      <c r="S24" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B25" s="2">
-        <v>28710.2980957031</v>
+        <v>20970.360839843699</v>
       </c>
       <c r="C25" s="2">
-        <v>3750.9995999932198</v>
+        <v>4397.0007999986401</v>
       </c>
       <c r="D25" s="1">
         <v>78710</v>
@@ -1381,7 +2529,7 @@
         <v>2.5</v>
       </c>
       <c r="I25">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="I25:I33" si="3">(G25+H25)*F25</f>
         <v>379442.501062439</v>
       </c>
       <c r="J25" s="7">
@@ -1389,19 +2537,19 @@
         <v>0.73357998172902394</v>
       </c>
       <c r="K25" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M25" s="2">
-        <v>120.685000002384</v>
+        <v>131.321199998259</v>
       </c>
       <c r="N25" s="2">
-        <v>5.794921875</v>
+        <v>5.1220703125</v>
       </c>
       <c r="O25">
-        <v>23</v>
+        <v>18260</v>
       </c>
       <c r="P25" s="1">
         <v>104857600</v>
@@ -1412,20 +2560,20 @@
       <c r="R25" t="s">
         <v>18</v>
       </c>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B26" s="2">
-        <v>10200.0148925781</v>
+        <v>25416.9152832031</v>
       </c>
       <c r="C26" s="2">
-        <v>26139.453100010702</v>
+        <v>4269.6210000067904</v>
       </c>
       <c r="D26" s="1">
         <v>78710</v>
@@ -1437,33 +2585,33 @@
         <v>151777</v>
       </c>
       <c r="G26" s="4">
-        <v>8.0000000000000005E-9</v>
+        <v>6.9999999999999998E-9</v>
       </c>
       <c r="H26" s="2">
         <v>2.5</v>
       </c>
       <c r="I26">
         <f t="shared" si="3"/>
-        <v>379442.50121421606</v>
+        <v>379442.501062439</v>
       </c>
       <c r="J26" s="7">
         <f t="shared" si="2"/>
-        <v>0.73357998202245611</v>
+        <v>0.73357998172902394</v>
       </c>
       <c r="K26" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M26" s="2">
-        <v>127.680999994277</v>
+        <v>121.35949999093999</v>
       </c>
       <c r="N26" s="2">
-        <v>4.27099609375</v>
+        <v>5.47607421875</v>
       </c>
       <c r="O26">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="P26" s="1">
         <v>104857600</v>
@@ -1474,85 +2622,88 @@
       <c r="R26" t="s">
         <v>18</v>
       </c>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-    </row>
-    <row r="27" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B27" s="2">
-        <v>14384.899902343701</v>
+        <v>28710.2980957031</v>
       </c>
       <c r="C27" s="2">
-        <v>36074.654799997799</v>
+        <v>3750.9995999932198</v>
       </c>
       <c r="D27" s="1">
         <v>78710</v>
       </c>
       <c r="E27" s="1">
-        <v>104857600</v>
+        <v>78710</v>
       </c>
       <c r="F27">
         <v>151777</v>
       </c>
       <c r="G27" s="4">
-        <v>8.0000000000000005E-9</v>
+        <v>6.9999999999999998E-9</v>
       </c>
       <c r="H27" s="2">
         <v>2.5</v>
       </c>
       <c r="I27">
         <f t="shared" si="3"/>
-        <v>379442.50121421606</v>
+        <v>379442.501062439</v>
       </c>
       <c r="J27" s="7">
         <f t="shared" si="2"/>
-        <v>0.73357998202245611</v>
+        <v>0.73357998172902394</v>
       </c>
       <c r="K27" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L27">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M27" s="2">
-        <v>117.247400000691</v>
+        <v>120.685000002384</v>
       </c>
       <c r="N27" s="2">
-        <v>725.56494140625</v>
+        <v>5.794921875</v>
       </c>
       <c r="O27">
-        <v>41.6</v>
+        <v>23</v>
       </c>
       <c r="P27" s="1">
-        <v>78710</v>
+        <v>104857600</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>18</v>
       </c>
       <c r="R27" t="s">
         <v>18</v>
       </c>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B28" s="2">
-        <v>23428.2600097656</v>
+        <v>10200.0148925781</v>
       </c>
       <c r="C28" s="2">
-        <v>34782.579300001198</v>
+        <v>26139.453100010702</v>
       </c>
       <c r="D28" s="1">
         <v>78710</v>
       </c>
       <c r="E28" s="1">
-        <v>104857600</v>
+        <v>78710</v>
       </c>
       <c r="F28">
         <v>151777</v>
@@ -1572,22 +2723,22 @@
         <v>0.73357998202245611</v>
       </c>
       <c r="K28" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M28" s="2">
-        <v>117.232699990272</v>
+        <v>127.680999994277</v>
       </c>
       <c r="N28" s="2">
-        <v>4.444091796875</v>
+        <v>4.27099609375</v>
       </c>
       <c r="O28">
-        <v>20.75</v>
+        <v>23</v>
       </c>
       <c r="P28" s="1">
-        <v>78710</v>
+        <v>104857600</v>
       </c>
       <c r="Q28" t="s">
         <v>18</v>
@@ -1595,20 +2746,20 @@
       <c r="R28" t="s">
         <v>18</v>
       </c>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+    </row>
+    <row r="29" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B29" s="2">
-        <v>23340.421875</v>
+        <v>14384.899902343701</v>
       </c>
       <c r="C29" s="2">
-        <v>33957.320899993101</v>
+        <v>36074.654799997799</v>
       </c>
       <c r="D29" s="1">
         <v>78710</v>
@@ -1634,43 +2785,40 @@
         <v>0.73357998202245611</v>
       </c>
       <c r="K29" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M29" s="2">
-        <v>116.71500000357599</v>
+        <v>117.247400000691</v>
       </c>
       <c r="N29" s="2">
-        <v>4.801025390625</v>
+        <v>725.56494140625</v>
       </c>
       <c r="O29">
-        <v>20.11</v>
+        <v>41.6</v>
       </c>
       <c r="P29" s="1">
         <v>78710</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>18</v>
       </c>
       <c r="R29" t="s">
         <v>18</v>
       </c>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B30" s="2">
-        <v>13398.739746093701</v>
+        <v>23428.2600097656</v>
       </c>
       <c r="C30" s="2">
-        <v>31862.307400002999</v>
+        <v>34782.579300001198</v>
       </c>
       <c r="D30" s="1">
         <v>78710</v>
@@ -1696,19 +2844,19 @@
         <v>0.73357998202245611</v>
       </c>
       <c r="K30" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M30" s="2">
-        <v>115.319600000977</v>
+        <v>117.232699990272</v>
       </c>
       <c r="N30" s="2">
-        <v>6.543212890625</v>
+        <v>4.444091796875</v>
       </c>
       <c r="O30">
-        <v>19.39</v>
+        <v>20.75</v>
       </c>
       <c r="P30" s="1">
         <v>78710</v>
@@ -1719,20 +2867,20 @@
       <c r="R30" t="s">
         <v>18</v>
       </c>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B31" s="2">
-        <v>12013.2839355468</v>
+        <v>23340.421875</v>
       </c>
       <c r="C31" s="2">
-        <v>32807.0062000006</v>
+        <v>33957.320899993101</v>
       </c>
       <c r="D31" s="1">
         <v>78710</v>
@@ -1753,24 +2901,24 @@
         <f t="shared" si="3"/>
         <v>379442.50121421606</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="7">
         <f t="shared" si="2"/>
         <v>0.73357998202245611</v>
       </c>
-      <c r="K31" s="6">
-        <v>10</v>
+      <c r="K31" s="5">
+        <v>8</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M31" s="2">
-        <v>120.38870000839199</v>
+        <v>116.71500000357599</v>
       </c>
       <c r="N31" s="2">
-        <v>5.800048828125</v>
+        <v>4.801025390625</v>
       </c>
       <c r="O31">
-        <v>20.88</v>
+        <v>20.11</v>
       </c>
       <c r="P31" s="1">
         <v>78710</v>
@@ -1781,220 +2929,389 @@
       <c r="R31" t="s">
         <v>18</v>
       </c>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>42</v>
-      </c>
+      <c r="A32">
+        <v>9</v>
+      </c>
+      <c r="B32" s="2">
+        <v>13398.739746093701</v>
+      </c>
+      <c r="C32" s="2">
+        <v>31862.307400002999</v>
+      </c>
+      <c r="D32" s="1">
+        <v>78710</v>
+      </c>
+      <c r="E32" s="1">
+        <v>104857600</v>
+      </c>
+      <c r="F32">
+        <v>151777</v>
+      </c>
+      <c r="G32" s="4">
+        <v>8.0000000000000005E-9</v>
+      </c>
+      <c r="H32" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>379442.50121421606</v>
+      </c>
+      <c r="J32" s="7">
+        <f t="shared" si="2"/>
+        <v>0.73357998202245611</v>
+      </c>
+      <c r="K32" s="5">
+        <v>9</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="M32" s="2">
+        <v>115.319600000977</v>
+      </c>
+      <c r="N32" s="2">
+        <v>6.543212890625</v>
+      </c>
+      <c r="O32">
+        <v>19.39</v>
+      </c>
+      <c r="P32" s="1">
+        <v>78710</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>18</v>
+      </c>
+      <c r="R32" t="s">
+        <v>18</v>
+      </c>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>10</v>
+      </c>
+      <c r="B33" s="2">
+        <v>12013.2839355468</v>
+      </c>
+      <c r="C33" s="2">
+        <v>32807.0062000006</v>
+      </c>
+      <c r="D33" s="1">
+        <v>78710</v>
+      </c>
+      <c r="E33" s="1">
+        <v>104857600</v>
+      </c>
+      <c r="F33">
+        <v>151777</v>
+      </c>
+      <c r="G33" s="4">
+        <v>8.0000000000000005E-9</v>
+      </c>
+      <c r="H33" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>379442.50121421606</v>
+      </c>
+      <c r="J33" s="3">
+        <f t="shared" si="2"/>
+        <v>0.73357998202245611</v>
+      </c>
+      <c r="K33" s="6">
+        <v>10</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33" s="2">
+        <v>120.38870000839199</v>
+      </c>
+      <c r="N33" s="2">
+        <v>5.800048828125</v>
+      </c>
+      <c r="O33">
+        <v>20.88</v>
+      </c>
+      <c r="P33" s="1">
+        <v>78710</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>18</v>
+      </c>
+      <c r="R33" t="s">
+        <v>18</v>
+      </c>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B35" s="2"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="2"/>
+        <v>45</v>
+      </c>
       <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L36" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="M36" s="20"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B37" s="2"/>
       <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L37" s="21">
+        <v>78710</v>
+      </c>
+      <c r="M37">
+        <f>(SUM(Foglio1!$C$10:$C$14)+SUM(Foglio1!$C$24:$C$28))/10</f>
+        <v>6390.5651800051246</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
       <c r="B38" s="2"/>
       <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+      <c r="L38" s="21">
+        <v>104857600</v>
+      </c>
+      <c r="M38">
+        <f>(SUM(Foglio1!$C$15:$C$19)+SUM(Foglio1!$C$29:$C$33))/10</f>
+        <v>33080.426839999796</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B42" s="2"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B43" s="2"/>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="15" t="s">
+      <c r="B44" s="16"/>
+      <c r="C44" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D44" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="19" t="s">
+      <c r="F44" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B40">
+      <c r="B45">
         <v>17</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="F40" s="8" t="s">
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="F45" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G45" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="H45" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I40" s="10" t="s">
+      <c r="I45" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B41">
+      <c r="B46">
         <v>1</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C46" t="s">
         <v>32</v>
       </c>
-      <c r="D41">
-        <f>$B$40+B41</f>
+      <c r="D46">
+        <f>$B$45+B46</f>
         <v>18</v>
       </c>
-      <c r="F41">
+      <c r="F46">
         <v>185977</v>
       </c>
-      <c r="G41" s="16">
-        <f>(D41*$F41*$E$4)*$A$2</f>
+      <c r="G46" s="11">
+        <f>(D46*$F46*$E$4)*$A$2</f>
         <v>6.4719214896599997</v>
       </c>
-      <c r="H41" s="16">
-        <f>(D41*$F41*$E$4)*$A$2</f>
+      <c r="H46" s="11">
+        <f>(D46*$F46*$E$4)*$A$2</f>
         <v>6.4719214896599997</v>
       </c>
-      <c r="I41" s="16">
-        <f>(D43*$F41*$E$4)*$A$2</f>
+      <c r="I46" s="11">
+        <f>(D48*$F46*$E$4)*$A$2</f>
         <v>7.1910238774000002</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B42">
+      <c r="B47">
         <v>1</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C47" t="s">
         <v>32</v>
       </c>
-      <c r="D42">
-        <f t="shared" ref="D42:D43" si="4">$B$40+B42</f>
+      <c r="D47">
+        <f t="shared" ref="D47:D48" si="4">$B$45+B47</f>
         <v>18</v>
       </c>
-      <c r="F42">
+      <c r="F47">
         <v>151777</v>
       </c>
-      <c r="G42" s="16">
-        <f>(D42*$F42*$E$4)*$A$2</f>
+      <c r="G47" s="11">
+        <f>(D47*$F47*$E$4)*$A$2</f>
         <v>5.2817758536600001</v>
       </c>
-      <c r="H42" s="16">
-        <f>(D42*$F42*$E$4)*$A$2</f>
+      <c r="H47" s="11">
+        <f>(D47*$F47*$E$4)*$A$2</f>
         <v>5.2817758536600001</v>
       </c>
-      <c r="I42" s="16">
-        <f>(D43*$F42*$E$4)*$A$2</f>
+      <c r="I47" s="11">
+        <f>(D48*$F47*$E$4)*$A$2</f>
         <v>5.8686398373999999</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B43">
+      <c r="B48">
         <v>3</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C48" t="s">
         <v>33</v>
       </c>
-      <c r="D43">
+      <c r="D48">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="F43" s="2"/>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F44" s="2"/>
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="F48" s="2"/>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F49" s="2"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>31</v>
       </c>
-      <c r="F45" s="2"/>
-      <c r="H45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="F50" s="2"/>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>35</v>
       </c>
-      <c r="F46" s="2"/>
-      <c r="H46" s="2"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="F51" s="2"/>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>30</v>
       </c>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>36</v>
       </c>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D52" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D57" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="A39:B39"/>
+  <mergeCells count="12">
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="S24:V33"/>
+    <mergeCell ref="K22:R22"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="A44:B44"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A20:R20"/>
-    <mergeCell ref="S22:V30"/>
+    <mergeCell ref="A21:R21"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/benchmark.xlsx
+++ b/benchmark.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Google Drive\Università\__Tesi\Progetto\nft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Google Drive\Università\__Tesi\Progetto\nft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7944EF-FE23-4FAD-8B19-2F1C2BEFA3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9932653-30E5-4B05-A256-F1EC0D0A3BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{974F0CEC-CCF7-43EF-B0E3-7D8AA16FF792}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{974F0CEC-CCF7-43EF-B0E3-7D8AA16FF792}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
   <si>
     <t>Gas Used</t>
   </si>
@@ -189,6 +189,12 @@
   <si>
     <t>SAFE MINT</t>
   </si>
+  <si>
+    <t>Operazione</t>
+  </si>
+  <si>
+    <t>Pubblicazione smart contract</t>
+  </si>
 </sst>
 </file>
 
@@ -199,7 +205,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +222,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -310,7 +324,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -325,12 +339,8 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="22" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -340,17 +350,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -399,18 +414,14 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>IPFS</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Storage per dimensione (byte)</a:t>
+              <a:t>IPFS Storage per dimensione (byte)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -435,9 +446,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="it-IT"/>
@@ -455,7 +466,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>78.710</c:v>
+            <c:v>78,710</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -557,7 +568,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>104.857.600</c:v>
+            <c:v>104,857,600</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -656,7 +667,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -690,9 +700,9 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -722,9 +732,9 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="it-IT"/>
@@ -760,9 +770,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="it-IT"/>
@@ -810,9 +820,9 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -842,9 +852,9 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="it-IT"/>
@@ -874,9 +884,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="it-IT"/>
@@ -916,9 +926,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="it-IT"/>
@@ -956,7 +966,2061 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>safeMint</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$10:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$10:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9456.81005859375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13012.0380859375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16485.311035156199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13034.816894531201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12279.779785156201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9161.1689453125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11965.62890625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20401.583740234299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28535.0859375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16551.981933593699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-3272-40A1-BC23-78D21EF0A8FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$10:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$10:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9456.81005859375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13012.0380859375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16485.311035156199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13034.816894531201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12279.779785156201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9161.1689453125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11965.62890625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20401.583740234299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28535.0859375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16551.981933593699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-3272-40A1-BC23-78D21EF0A8FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$10:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$10:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9456.81005859375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13012.0380859375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16485.311035156199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13034.816894531201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12279.779785156201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9161.1689453125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11965.62890625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20401.583740234299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28535.0859375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16551.981933593699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-3272-40A1-BC23-78D21EF0A8FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$10:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$10:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9456.81005859375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13012.0380859375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16485.311035156199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13034.816894531201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12279.779785156201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9161.1689453125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11965.62890625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20401.583740234299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28535.0859375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16551.981933593699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000016-3272-40A1-BC23-78D21EF0A8FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$10:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$10:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9456.81005859375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13012.0380859375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16485.311035156199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13034.816894531201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12279.779785156201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9161.1689453125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11965.62890625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20401.583740234299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28535.0859375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16551.981933593699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-3272-40A1-BC23-78D21EF0A8FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$10:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$10:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9456.81005859375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13012.0380859375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16485.311035156199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13034.816894531201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12279.779785156201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9161.1689453125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11965.62890625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20401.583740234299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28535.0859375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16551.981933593699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-3272-40A1-BC23-78D21EF0A8FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$10:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$10:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9456.81005859375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13012.0380859375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16485.311035156199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13034.816894531201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12279.779785156201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9161.1689453125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11965.62890625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20401.583740234299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28535.0859375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16551.981933593699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-3272-40A1-BC23-78D21EF0A8FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$10:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$10:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9456.81005859375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13012.0380859375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16485.311035156199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13034.816894531201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12279.779785156201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9161.1689453125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11965.62890625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20401.583740234299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28535.0859375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16551.981933593699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-3272-40A1-BC23-78D21EF0A8FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="687545656"/>
+        <c:axId val="687548536"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="687545656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Esperimenti</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="687548536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="687548536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Tempo (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="687545656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>tokenURI</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$K$24:$K$33</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$M$24:$M$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>507.32950000464899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131.321199998259</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121.35949999093999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120.685000002384</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>127.680999994277</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>117.247400000691</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>117.232699990272</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>116.71500000357599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>115.319600000977</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>120.38870000839199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-877C-465A-A1CE-88EB9ED25D34}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="687545656"/>
+        <c:axId val="687548536"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="687545656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Esperimenti</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="687548536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="687548536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Tempo (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="687545656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>IPFS Fetch</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Metadato 1</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$N$24:$N$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1074.0619140624999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1220703125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.47607421875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.794921875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.27099609375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-693D-4237-A25B-14EEB0B366B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Metadato 2</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$N$29:$N$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>725.56494140625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.444091796875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.801025390625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.543212890625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.800048828125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-693D-4237-A25B-14EEB0B366B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="687545656"/>
+        <c:axId val="687548536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="687545656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Esperimenti</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="687548536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="687548536"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Tempo (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="687545656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>IPFS Document Fetch</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>104,857,600 byte</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$O$24:$O$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32790</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18260</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-54CD-4CA3-AF7C-AC03B8E7BBCD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="687545656"/>
+        <c:axId val="687548536"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="687545656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Esperimenti</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="687548536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="687548536"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Tempo (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="687545656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="it-IT"/>
     </a:p>
@@ -1550,6 +3614,156 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>218209</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>161491</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>329046</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F36991BB-1877-C4BD-2612-1ED0B4884A0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>492702</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>154998</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>536864</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79C889FE-9235-4253-AFDD-8D29F46D6B97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>329912</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>167554</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Grafico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C5C45AE-4A46-4DE6-8D85-6144FB80080C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>25112</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>53254</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Grafico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22E56B5B-2220-4981-9F84-671685927B25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1850,10 +4064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DDE52C-A3B6-4AE4-B515-FC5446308817}">
-  <dimension ref="A1:V57"/>
+  <dimension ref="A1:Y57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1870,8 +4084,7 @@
     <col min="11" max="11" width="9.5703125" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="26.5703125" bestFit="1" customWidth="1"/>
@@ -1893,7 +4106,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
-        <v>1933.31</v>
+        <v>2000</v>
       </c>
       <c r="B2" s="17"/>
       <c r="E2">
@@ -1949,18 +4162,18 @@
       <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -2025,7 +4238,7 @@
       </c>
       <c r="J10" s="3">
         <f>(I10*$E$4*$A$2)</f>
-        <v>1.1218763962776461</v>
+        <v>1.160575796202002</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -2059,7 +4272,7 @@
       </c>
       <c r="J11" s="3">
         <f>(I11*$E$4*$A$2)</f>
-        <v>1.1305123712229728</v>
+        <v>1.1695096712094519</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -2093,7 +4306,7 @@
       </c>
       <c r="J12" s="3">
         <f t="shared" ref="J12:J19" si="0">(I12*$E$4*$A$2)</f>
-        <v>1.112396275297812</v>
+        <v>1.1507686561366901</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -2127,7 +4340,7 @@
       </c>
       <c r="J13" s="3">
         <f t="shared" si="0"/>
-        <v>1.1059896519647416</v>
+        <v>1.1441410347691179</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -2161,7 +4374,7 @@
       </c>
       <c r="J14" s="3">
         <f t="shared" si="0"/>
-        <v>1.0811758229354242</v>
+        <v>1.1184712466551399</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -2195,7 +4408,7 @@
       </c>
       <c r="J15" s="3">
         <f t="shared" si="0"/>
-        <v>1.117569735426585</v>
+        <v>1.156120576034454</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -2229,7 +4442,7 @@
       </c>
       <c r="J16" s="3">
         <f t="shared" si="0"/>
-        <v>1.0518330389546928</v>
+        <v>1.0881162761840499</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
@@ -2263,7 +4476,7 @@
       </c>
       <c r="J17" s="3">
         <f t="shared" si="0"/>
-        <v>1.0615783593672992</v>
+        <v>1.0981977638012521</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
@@ -2297,7 +4510,7 @@
       </c>
       <c r="J18" s="3">
         <f t="shared" si="0"/>
-        <v>1.0401709289269783</v>
+        <v>1.0760518788264459</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -2331,7 +4544,7 @@
       </c>
       <c r="J19" s="3">
         <f t="shared" si="0"/>
-        <v>1.054428041747226</v>
+        <v>1.090800794230854</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
@@ -2366,18 +4579,18 @@
       <c r="R21" s="16"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
       <c r="K22" s="22" t="s">
         <v>49</v>
       </c>
@@ -2476,7 +4689,7 @@
       </c>
       <c r="J24" s="7">
         <f t="shared" ref="J24:J33" si="2">(I24*$E$4*$A$2)</f>
-        <v>0.89887798719185841</v>
+        <v>0.92988500260367812</v>
       </c>
       <c r="K24" s="5">
         <v>1</v>
@@ -2496,12 +4709,12 @@
       <c r="P24" s="1">
         <v>104857600</v>
       </c>
-      <c r="S24" s="19" t="s">
+      <c r="S24" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -2534,7 +4747,7 @@
       </c>
       <c r="J25" s="7">
         <f t="shared" si="2"/>
-        <v>0.73357998172902394</v>
+        <v>0.75888500212487797</v>
       </c>
       <c r="K25" s="5">
         <v>2</v>
@@ -2560,10 +4773,10 @@
       <c r="R25" t="s">
         <v>18</v>
       </c>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -2596,7 +4809,7 @@
       </c>
       <c r="J26" s="7">
         <f t="shared" si="2"/>
-        <v>0.73357998172902394</v>
+        <v>0.75888500212487797</v>
       </c>
       <c r="K26" s="5">
         <v>3</v>
@@ -2622,10 +4835,10 @@
       <c r="R26" t="s">
         <v>18</v>
       </c>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -2658,7 +4871,7 @@
       </c>
       <c r="J27" s="7">
         <f t="shared" si="2"/>
-        <v>0.73357998172902394</v>
+        <v>0.75888500212487797</v>
       </c>
       <c r="K27" s="5">
         <v>4</v>
@@ -2684,10 +4897,10 @@
       <c r="R27" t="s">
         <v>18</v>
       </c>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -2720,7 +4933,7 @@
       </c>
       <c r="J28" s="7">
         <f t="shared" si="2"/>
-        <v>0.73357998202245611</v>
+        <v>0.75888500242843215</v>
       </c>
       <c r="K28" s="5">
         <v>5</v>
@@ -2746,10 +4959,10 @@
       <c r="R28" t="s">
         <v>18</v>
       </c>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
     </row>
     <row r="29" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -2782,7 +4995,7 @@
       </c>
       <c r="J29" s="7">
         <f t="shared" si="2"/>
-        <v>0.73357998202245611</v>
+        <v>0.75888500242843215</v>
       </c>
       <c r="K29" s="5">
         <v>6</v>
@@ -2805,10 +5018,10 @@
       <c r="R29" t="s">
         <v>18</v>
       </c>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -2841,7 +5054,7 @@
       </c>
       <c r="J30" s="7">
         <f t="shared" si="2"/>
-        <v>0.73357998202245611</v>
+        <v>0.75888500242843215</v>
       </c>
       <c r="K30" s="5">
         <v>7</v>
@@ -2867,10 +5080,10 @@
       <c r="R30" t="s">
         <v>18</v>
       </c>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="19"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -2903,7 +5116,7 @@
       </c>
       <c r="J31" s="7">
         <f t="shared" si="2"/>
-        <v>0.73357998202245611</v>
+        <v>0.75888500242843215</v>
       </c>
       <c r="K31" s="5">
         <v>8</v>
@@ -2929,10 +5142,10 @@
       <c r="R31" t="s">
         <v>18</v>
       </c>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -2965,7 +5178,7 @@
       </c>
       <c r="J32" s="7">
         <f t="shared" si="2"/>
-        <v>0.73357998202245611</v>
+        <v>0.75888500242843215</v>
       </c>
       <c r="K32" s="5">
         <v>9</v>
@@ -2991,12 +5204,12 @@
       <c r="R32" t="s">
         <v>18</v>
       </c>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="19"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>10</v>
       </c>
@@ -3027,7 +5240,7 @@
       </c>
       <c r="J33" s="3">
         <f t="shared" si="2"/>
-        <v>0.73357998202245611</v>
+        <v>0.75888500242843215</v>
       </c>
       <c r="K33" s="6">
         <v>10</v>
@@ -3053,23 +5266,23 @@
       <c r="R33" t="s">
         <v>18</v>
       </c>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="19"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>46</v>
       </c>
       <c r="B35" s="2"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -3078,14 +5291,15 @@
         <v>44</v>
       </c>
       <c r="M36" s="20"/>
+      <c r="Y36" s="15"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>48</v>
       </c>
       <c r="B37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="L37" s="21">
+      <c r="L37" s="14">
         <v>78710</v>
       </c>
       <c r="M37">
@@ -3093,13 +5307,13 @@
         <v>6390.5651800051246</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>47</v>
       </c>
       <c r="B38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="L38" s="21">
+      <c r="L38" s="14">
         <v>104857600</v>
       </c>
       <c r="M38">
@@ -3107,62 +5321,65 @@
         <v>33080.426839999796</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39" s="2"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>23</v>
       </c>
       <c r="B40" s="2"/>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
       <c r="B41" s="2"/>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B44" s="16"/>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="F44" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B45">
         <v>17</v>
       </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="F45" s="8" t="s">
         <v>0</v>
       </c>
@@ -3176,7 +5393,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>24</v>
       </c>
@@ -3190,53 +5407,56 @@
         <f>$B$45+B46</f>
         <v>18</v>
       </c>
+      <c r="E46" t="s">
+        <v>52</v>
+      </c>
       <c r="F46">
-        <v>185977</v>
+        <v>3212571</v>
       </c>
       <c r="G46" s="11">
-        <f>(D46*$F46*$E$4)*$A$2</f>
-        <v>6.4719214896599997</v>
+        <f>($D$46*$F46*$E$4)*$A$2</f>
+        <v>115.652556</v>
       </c>
       <c r="H46" s="11">
-        <f>(D46*$F46*$E$4)*$A$2</f>
-        <v>6.4719214896599997</v>
+        <f>($D$47*$F46*$E$4)*$A$2</f>
+        <v>122.07769800000001</v>
       </c>
       <c r="I46" s="11">
-        <f>(D48*$F46*$E$4)*$A$2</f>
-        <v>7.1910238774000002</v>
+        <f>($D$48*$F46*$E$4)*$A$2</f>
+        <v>128.50284000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" t="s">
         <v>32</v>
       </c>
       <c r="D47">
         <f t="shared" ref="D47:D48" si="4">$B$45+B47</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F47">
-        <v>151777</v>
+        <v>185977</v>
       </c>
       <c r="G47" s="11">
-        <f>(D47*$F47*$E$4)*$A$2</f>
-        <v>5.2817758536600001</v>
+        <f>($D$46*$F47*$E$4)*$A$2</f>
+        <v>6.6951720000000003</v>
       </c>
       <c r="H47" s="11">
-        <f>(D47*$F47*$E$4)*$A$2</f>
-        <v>5.2817758536600001</v>
+        <f>($D$47*$F47*$E$4)*$A$2</f>
+        <v>7.0671260000000009</v>
       </c>
       <c r="I47" s="11">
-        <f>(D48*$F47*$E$4)*$A$2</f>
-        <v>5.8686398373999999</v>
+        <f>($D$48*$F47*$E$4)*$A$2</f>
+        <v>7.4390800000000006</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>26</v>
       </c>
@@ -3250,18 +5470,26 @@
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="F48" s="2"/>
-      <c r="H48" s="2"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F49" s="2"/>
-      <c r="H49" s="2"/>
+      <c r="F48">
+        <v>151777</v>
+      </c>
+      <c r="G48" s="11">
+        <f>($D$46*$F48*$E$4)*$A$2</f>
+        <v>5.4639720000000001</v>
+      </c>
+      <c r="H48" s="11">
+        <f>($D$47*$F48*$E$4)*$A$2</f>
+        <v>5.7675260000000002</v>
+      </c>
+      <c r="I48" s="11">
+        <f>($D$48*$F48*$E$4)*$A$2</f>
+        <v>6.0710800000000003</v>
+      </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>31</v>
       </c>
-      <c r="F50" s="2"/>
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -3297,7 +5525,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="L36:M36"/>
     <mergeCell ref="S24:V33"/>
     <mergeCell ref="K22:R22"/>
     <mergeCell ref="C44:C45"/>
@@ -3309,6 +5536,7 @@
     <mergeCell ref="A21:R21"/>
     <mergeCell ref="A22:J22"/>
     <mergeCell ref="A8:J8"/>
+    <mergeCell ref="L36:M36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
